--- a/documentation/Linear model metadata_Complete.xlsx
+++ b/documentation/Linear model metadata_Complete.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RProjects\github\BRFSS\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13AF8AFF-71B9-47DF-824D-B4EFBECF47D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354D35C4-A15C-42CE-81BE-C3CE2B690CF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11880" yWindow="-15075" windowWidth="23340" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10500" yWindow="-13695" windowWidth="23340" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
